--- a/OTRAS_ENG - York/data/student-comments.xlsx
+++ b/OTRAS_ENG - York/data/student-comments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC210D81-A486-450C-A1B3-D29FC2F8C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FD08D-8ED8-4782-B49F-B6741F332CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Sources and Documentation Styles in Psychology</t>
   </si>
   <si>
-    <t>\textit{"Professor Juan always came prepared to the classes and kept us informed of everything, the topics were very interesting and contributed a lot to my learning; if I had any difficulty or concern he was concerned about solving it. learning; if I had any difficulty or concern he was concerned to solve it"}</t>
-  </si>
-  <si>
     <t>\textit{"Excellent teacher! He goes out of his way to make sure we learn and see the importance of research in psychology"}</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Quantitative Methods II (Psychology MSc)</t>
+  </si>
+  <si>
+    <t>\textit{"Professor Juan always came prepared to the classes and kept us informed of everything, the topics were very interesting and contributed a lot to my learning; if I had any difficulty or concern he was concerned about solving it"}</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -946,19 +946,19 @@
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>2018</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -977,7 +977,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,12 +986,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2015</v>
@@ -1003,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1041,7 +1041,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1056,37 +1056,37 @@
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
